--- a/Script/R_rmcorr/rmcorr_data.xlsx
+++ b/Script/R_rmcorr/rmcorr_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/PhD/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4AE514-6F62-6148-B483-2DAAC35D295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6967FD-8007-FE4D-A251-7CB36A52FBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{3FC97C57-1B58-A740-86EE-4BF5659C95DB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{3FC97C57-1B58-A740-86EE-4BF5659C95DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,13 +64,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,27 +80,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -114,20 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,29 +413,28 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="6"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -475,16 +442,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>12.8093674294522</v>
       </c>
       <c r="C2" s="1">
         <v>10.5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="1">
         <v>765</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="1">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -492,101 +459,101 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>1.4740140670328801</v>
       </c>
       <c r="C3" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="1">
         <v>712.9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="1">
         <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="1">
         <v>7.8563183491542601</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <v>20.6</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="1">
         <v>725.2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="1">
         <v>13.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="1">
         <v>-0.76</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="1">
         <v>425</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="1">
         <v>5.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="1">
         <v>1.91</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="1">
         <v>22.5</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="1">
         <v>480.4</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="1">
         <v>7.7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="1">
         <v>4.24</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="1">
         <v>24.9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="1">
         <v>491.9</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="1">
         <v>8.4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="1">
         <v>6.09121583703363</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="1">
         <v>15.6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="1">
         <v>497.3</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="1">
         <v>5.2</v>
       </c>
     </row>
@@ -594,16 +561,16 @@
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>7.1785044722842999</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>17.5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="1">
         <v>498.9</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="1">
         <v>8.4</v>
       </c>
     </row>
@@ -611,16 +578,16 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>4.3093133173123199</v>
       </c>
       <c r="C10" s="1">
         <v>22</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="1">
         <v>495.9</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="1">
         <v>11.7</v>
       </c>
     </row>
@@ -628,16 +595,16 @@
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>14.1481561933461</v>
       </c>
       <c r="C11" s="1">
         <v>10.3</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="1">
         <v>393.5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
     </row>
@@ -645,16 +612,16 @@
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>8.4146717318096105</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>14.2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="1">
         <v>368.7</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="1">
         <v>7.3</v>
       </c>
     </row>
@@ -662,16 +629,16 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>7.1203418874994604</v>
       </c>
       <c r="C13" s="1">
         <v>17.399999999999999</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="1">
         <v>397.7</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="1">
         <v>3.2</v>
       </c>
     </row>
@@ -679,16 +646,16 @@
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>3.9091482449877599</v>
       </c>
       <c r="C14" s="1">
         <v>13.5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="1">
         <v>429.9</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="1">
         <v>3.8</v>
       </c>
     </row>
@@ -696,16 +663,16 @@
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>5.6254439120173299</v>
       </c>
       <c r="C15" s="1">
         <v>17.45</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="1">
         <v>436.6</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="1">
         <v>15.8</v>
       </c>
     </row>
@@ -713,16 +680,16 @@
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>2.8513617647383298</v>
       </c>
       <c r="C16" s="1">
         <v>20.05</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="1">
         <v>424.3</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="1">
         <v>13</v>
       </c>
     </row>
@@ -730,16 +697,16 @@
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>5.0593107081461</v>
       </c>
       <c r="C17" s="1">
         <v>21.2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="1">
         <v>509.7</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="1">
         <v>4.8</v>
       </c>
     </row>
@@ -747,16 +714,16 @@
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>3.1346459597599798</v>
       </c>
       <c r="C18" s="1">
         <v>20.7</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="1">
         <v>464.4</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="1">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -764,16 +731,16 @@
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>-0.182530690829692</v>
       </c>
       <c r="C19" s="1">
         <v>23.9</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="1">
         <v>466.3</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="1">
         <v>12.2</v>
       </c>
     </row>
@@ -781,16 +748,16 @@
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>14.2357305052066</v>
       </c>
       <c r="C20" s="1">
         <v>22.3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="1">
         <v>783.1</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="1">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -798,16 +765,16 @@
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>13.8552970921631</v>
       </c>
       <c r="C21" s="1">
         <v>28.7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="1">
         <v>743.2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="1">
         <v>16.3</v>
       </c>
     </row>
@@ -815,16 +782,16 @@
       <c r="A22">
         <v>7</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="1">
         <v>12.7419618146753</v>
       </c>
       <c r="C22" s="1">
         <v>31.2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="1">
         <v>760.3</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="1">
         <v>16.100000000000001</v>
       </c>
     </row>
@@ -832,16 +799,16 @@
       <c r="A23">
         <v>8</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <v>8.5399999999999991</v>
       </c>
       <c r="C23" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="1">
         <v>705.2</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="1">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -849,16 +816,16 @@
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="1">
         <v>15.22</v>
       </c>
       <c r="C24" s="1">
         <v>27</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="1">
         <v>756.3</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="1">
         <v>11.2</v>
       </c>
     </row>
@@ -866,16 +833,16 @@
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="1">
         <v>15.09</v>
       </c>
       <c r="C25" s="1">
         <v>30.2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="1">
         <v>736.3</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="1">
         <v>17.7</v>
       </c>
     </row>
@@ -883,16 +850,16 @@
       <c r="A26">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="1">
         <v>3.59</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>13.3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="1">
         <v>551.29999999999995</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="1">
         <v>3.5</v>
       </c>
     </row>
@@ -900,16 +867,16 @@
       <c r="A27">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <v>2.2400000000000002</v>
       </c>
       <c r="C27" s="1">
         <v>17.7</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="1">
         <v>536.4</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="1">
         <v>12.8</v>
       </c>
     </row>
@@ -917,16 +884,16 @@
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="1">
         <v>-0.82</v>
       </c>
       <c r="C28" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="1">
         <v>514.5</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="1">
         <v>11.7</v>
       </c>
     </row>
@@ -934,16 +901,16 @@
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="1">
         <v>8.57</v>
       </c>
       <c r="C29" s="1">
         <v>15.3</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="1">
         <v>814</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="1">
         <v>6</v>
       </c>
     </row>
@@ -951,16 +918,16 @@
       <c r="A30">
         <v>10</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="1">
         <v>10.83</v>
       </c>
       <c r="C30" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="1">
         <v>835.9</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="1">
         <v>9.1</v>
       </c>
     </row>
@@ -968,16 +935,16 @@
       <c r="A31">
         <v>10</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="1">
         <v>9.34</v>
       </c>
       <c r="C31" s="1">
         <v>22.2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="1">
         <v>825.9</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="1">
         <v>11.1</v>
       </c>
     </row>
@@ -985,16 +952,16 @@
       <c r="A32">
         <v>11</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="1">
         <v>10.56</v>
       </c>
       <c r="C32" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="1">
         <v>713.1</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="1">
         <v>4.2</v>
       </c>
     </row>
@@ -1002,16 +969,16 @@
       <c r="A33">
         <v>11</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="1">
         <v>18.32</v>
       </c>
       <c r="C33" s="1">
         <v>25.2</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="1">
         <v>713.4</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="1">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -1019,16 +986,16 @@
       <c r="A34">
         <v>11</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="1">
         <v>13.22</v>
       </c>
       <c r="C34" s="1">
         <v>26.3</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="1">
         <v>654.5</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1036,16 +1003,16 @@
       <c r="A35">
         <v>12</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="1">
         <v>4.49</v>
       </c>
       <c r="C35" s="1">
         <v>15.2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="1">
         <v>395.4</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="1">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -1053,16 +1020,16 @@
       <c r="A36">
         <v>12</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="1">
         <v>2.5</v>
       </c>
       <c r="C36" s="1">
         <v>17</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="1">
         <v>407.1</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="1">
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -1070,16 +1037,16 @@
       <c r="A37">
         <v>12</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="1">
         <v>2.4300000000000002</v>
       </c>
       <c r="C37" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="1">
         <v>384.7</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="1">
         <v>12.4</v>
       </c>
     </row>
